--- a/test1129.xlsx
+++ b/test1129.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zeron\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69EE30B8-4F04-4D16-B3BA-68175FE2DFEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F75F1CA3-E8D2-475B-8DBC-D34E070C160D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{235913DE-E1E4-45A1-91F5-79018E181653}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{235913DE-E1E4-45A1-91F5-79018E181653}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>매출액(워커힐)</t>
   </si>
@@ -98,6 +98,10 @@
   </si>
   <si>
     <t>mag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>magg</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -462,25 +466,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98FDFB8F-B71E-4E17-8F6E-E3CBACA875D3}">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="22.19921875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.3984375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.19921875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C1" t="s">
         <v>17</v>
@@ -488,246 +492,303 @@
       <c r="D1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2">
+        <v>15139</v>
+      </c>
+      <c r="C2">
+        <v>35.875</v>
+      </c>
+      <c r="D2">
+        <v>128.66</v>
+      </c>
+      <c r="E2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3">
+        <v>50694</v>
+      </c>
+      <c r="C3">
+        <v>37.664000000000001</v>
+      </c>
+      <c r="D3">
+        <v>128.685</v>
+      </c>
+      <c r="E3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4">
+        <v>165915</v>
+      </c>
+      <c r="C4">
+        <v>33.491</v>
+      </c>
+      <c r="D4">
+        <v>126.494</v>
+      </c>
+      <c r="E4">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5">
+        <v>182661</v>
+      </c>
+      <c r="C5">
+        <v>33.506</v>
+      </c>
+      <c r="D5">
+        <v>126.527</v>
+      </c>
+      <c r="E5">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6">
+        <v>211191</v>
+      </c>
+      <c r="C6">
+        <v>33.518000000000001</v>
+      </c>
+      <c r="D6">
+        <v>126.52</v>
+      </c>
+      <c r="E6">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7">
+        <v>229536</v>
+      </c>
+      <c r="C7">
+        <v>33.247999999999998</v>
+      </c>
+      <c r="D7">
+        <v>126.408</v>
+      </c>
+      <c r="E7">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8">
+        <v>255949</v>
+      </c>
+      <c r="C8">
+        <v>33.518999999999998</v>
+      </c>
+      <c r="D8">
+        <v>126.518</v>
+      </c>
+      <c r="E8">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9">
+        <v>399221</v>
+      </c>
+      <c r="C9">
+        <v>33.249000000000002</v>
+      </c>
+      <c r="D9">
+        <v>126.411</v>
+      </c>
+      <c r="E9">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <v>513709</v>
+      </c>
+      <c r="C10">
+        <v>33.485999999999997</v>
+      </c>
+      <c r="D10">
+        <v>126.488</v>
+      </c>
+      <c r="E10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11">
+        <v>566423</v>
+      </c>
+      <c r="C11">
+        <v>37.438000000000002</v>
+      </c>
+      <c r="D11">
+        <v>126.455</v>
+      </c>
+      <c r="E11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12">
+        <v>610914</v>
+      </c>
+      <c r="C12">
+        <v>33.305</v>
+      </c>
+      <c r="D12">
+        <v>126.319</v>
+      </c>
+      <c r="E12">
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13">
+        <v>922975</v>
+      </c>
+      <c r="C13">
+        <v>35.161999999999999</v>
+      </c>
+      <c r="D13">
+        <v>129.05799999999999</v>
+      </c>
+      <c r="E13">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14">
+        <v>1082627</v>
+      </c>
+      <c r="C14">
+        <v>35.159999999999997</v>
+      </c>
+      <c r="D14">
+        <v>129.16499999999999</v>
+      </c>
+      <c r="E14">
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15">
+        <v>2447227</v>
+      </c>
+      <c r="C15">
+        <v>37.555999999999997</v>
+      </c>
+      <c r="D15">
+        <v>126.97499999999999</v>
+      </c>
+      <c r="E15">
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B16">
+        <v>3420562</v>
+      </c>
+      <c r="C16">
+        <v>37.512</v>
+      </c>
+      <c r="D16">
+        <v>127.05800000000001</v>
+      </c>
+      <c r="E16">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A17" t="s">
         <v>0</v>
       </c>
-      <c r="B2">
-        <v>4.8219279999999998</v>
-      </c>
-      <c r="C2">
+      <c r="B17">
+        <v>4821928</v>
+      </c>
+      <c r="C17">
         <v>37.555999999999997</v>
       </c>
-      <c r="D2">
+      <c r="D17">
         <v>127.111</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A3" t="s">
+      <c r="E17">
+        <v>5.9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A18" t="s">
         <v>1</v>
       </c>
-      <c r="B3">
-        <v>1.9493436</v>
-      </c>
-      <c r="C3">
+      <c r="B18">
+        <v>19493436</v>
+      </c>
+      <c r="C18">
         <v>37.212000000000003</v>
       </c>
-      <c r="D3">
+      <c r="D18">
         <v>128.821</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>3.4205619999999999</v>
-      </c>
-      <c r="C4">
-        <v>37.512</v>
-      </c>
-      <c r="D4">
-        <v>127.05800000000001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <v>9.2297499999999992</v>
-      </c>
-      <c r="C5">
-        <v>35.161999999999999</v>
-      </c>
-      <c r="D5">
-        <v>129.05799999999999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>2.4472269999999998</v>
-      </c>
-      <c r="C6">
-        <v>37.555999999999997</v>
-      </c>
-      <c r="D6">
-        <v>126.97499999999999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>10.826269999999999</v>
-      </c>
-      <c r="C7">
-        <v>35.159999999999997</v>
-      </c>
-      <c r="D7">
-        <v>129.16499999999999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A8" t="s">
+      <c r="E18">
         <v>6</v>
       </c>
-      <c r="B8">
-        <v>5.6642299999999999</v>
-      </c>
-      <c r="C8">
-        <v>37.438000000000002</v>
-      </c>
-      <c r="D8">
-        <v>126.455</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>0.50693999999999995</v>
-      </c>
-      <c r="C9">
-        <v>37.664000000000001</v>
-      </c>
-      <c r="D9">
-        <v>128.685</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10">
-        <v>0.15139</v>
-      </c>
-      <c r="C10">
-        <v>35.875</v>
-      </c>
-      <c r="D10">
-        <v>128.66</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11">
-        <v>2.5594899999999998</v>
-      </c>
-      <c r="C11">
-        <v>33.518999999999998</v>
-      </c>
-      <c r="D11">
-        <v>126.518</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12">
-        <v>5.1370899999999997</v>
-      </c>
-      <c r="C12">
-        <v>33.485999999999997</v>
-      </c>
-      <c r="D12">
-        <v>126.488</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A13" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13">
-        <v>3.99221</v>
-      </c>
-      <c r="C13">
-        <v>33.249000000000002</v>
-      </c>
-      <c r="D13">
-        <v>126.411</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A14" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14">
-        <v>2.2953600000000001</v>
-      </c>
-      <c r="C14">
-        <v>33.247999999999998</v>
-      </c>
-      <c r="D14">
-        <v>126.408</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A15" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15">
-        <v>2.11191</v>
-      </c>
-      <c r="C15">
-        <v>33.518000000000001</v>
-      </c>
-      <c r="D15">
-        <v>126.52</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A16" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16">
-        <v>1.6591499999999999</v>
-      </c>
-      <c r="C16">
-        <v>33.491</v>
-      </c>
-      <c r="D16">
-        <v>126.494</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A17" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17">
-        <v>6.10914</v>
-      </c>
-      <c r="C17">
-        <v>33.305</v>
-      </c>
-      <c r="D17">
-        <v>126.319</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A18" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18">
-        <v>1.8266100000000001</v>
-      </c>
-      <c r="C18">
-        <v>33.506</v>
-      </c>
-      <c r="D18">
-        <v>126.527</v>
-      </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D18">
+    <sortCondition ref="B2:B18"/>
+  </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
